--- a/docs/StructureDefinition-CareConnect-BloodPressure-Observation-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-BloodPressure-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7901" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7901" uniqueCount="665">
   <si>
     <t>Path</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -4804,7 +4807,7 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4846,10 +4849,10 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4857,7 +4860,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4972,7 +4975,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5089,7 +5092,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5112,19 +5115,19 @@
         <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -5173,7 +5176,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -5194,10 +5197,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -5208,7 +5211,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5323,7 +5326,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5440,7 +5443,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5466,23 +5469,23 @@
         <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>45</v>
@@ -5524,7 +5527,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5545,10 +5548,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5559,7 +5562,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5585,13 +5588,13 @@
         <v>120</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5641,7 +5644,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5662,10 +5665,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5676,7 +5679,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5702,21 +5705,21 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5758,7 +5761,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5779,10 +5782,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5793,7 +5796,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5819,21 +5822,21 @@
         <v>120</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>45</v>
@@ -5875,7 +5878,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5896,10 +5899,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5910,7 +5913,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5933,19 +5936,19 @@
         <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5994,7 +5997,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -6015,10 +6018,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -6029,7 +6032,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6055,16 +6058,16 @@
         <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -6113,7 +6116,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -6134,10 +6137,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -6148,11 +6151,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6174,14 +6177,14 @@
         <v>142</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -6209,10 +6212,10 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -6230,7 +6233,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>56</v>
@@ -6245,27 +6248,27 @@
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6380,7 +6383,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6497,7 +6500,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6520,19 +6523,19 @@
         <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6569,7 +6572,7 @@
         <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
@@ -6579,7 +6582,7 @@
         <v>129</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6600,10 +6603,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6614,10 +6617,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>45</v>
@@ -6639,19 +6642,19 @@
         <v>57</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6679,10 +6682,10 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6700,7 +6703,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6721,10 +6724,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6735,7 +6738,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6850,7 +6853,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6967,7 +6970,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6993,23 +6996,23 @@
         <v>69</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>45</v>
@@ -7051,7 +7054,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -7072,10 +7075,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -7086,7 +7089,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7112,13 +7115,13 @@
         <v>120</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7168,7 +7171,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -7189,10 +7192,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -7203,7 +7206,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7229,21 +7232,21 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>45</v>
@@ -7285,7 +7288,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7306,10 +7309,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -7320,7 +7323,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7346,14 +7349,14 @@
         <v>120</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7402,7 +7405,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7423,10 +7426,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -7437,7 +7440,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7460,19 +7463,19 @@
         <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7521,7 +7524,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7542,10 +7545,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7556,10 +7559,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>45</v>
@@ -7581,19 +7584,19 @@
         <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7642,7 +7645,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7663,10 +7666,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7792,7 +7795,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7818,10 +7821,10 @@
         <v>102</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7907,10 +7910,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>45</v>
@@ -7932,13 +7935,13 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8024,7 +8027,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8050,23 +8053,23 @@
         <v>69</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>45</v>
@@ -8108,7 +8111,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -8129,10 +8132,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -8143,7 +8146,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8169,13 +8172,13 @@
         <v>120</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8225,7 +8228,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -8246,10 +8249,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8286,21 +8289,21 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>45</v>
@@ -8342,7 +8345,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8363,10 +8366,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -8377,7 +8380,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8403,21 +8406,21 @@
         <v>120</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>45</v>
@@ -8459,7 +8462,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8480,10 +8483,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8494,7 +8497,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8517,19 +8520,19 @@
         <v>57</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8578,7 +8581,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8599,10 +8602,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8613,7 +8616,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8639,16 +8642,16 @@
         <v>120</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8697,7 +8700,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8718,10 +8721,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8732,7 +8735,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8755,19 +8758,19 @@
         <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8816,7 +8819,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8831,19 +8834,19 @@
         <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8851,11 +8854,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8874,19 +8877,19 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8935,7 +8938,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8950,19 +8953,19 @@
         <v>45</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
@@ -8970,11 +8973,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8993,19 +8996,19 @@
         <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -9054,7 +9057,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -9069,19 +9072,19 @@
         <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -9089,7 +9092,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9112,16 +9115,16 @@
         <v>57</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9171,7 +9174,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -9192,13 +9195,13 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -9206,7 +9209,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9229,17 +9232,17 @@
         <v>57</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9288,7 +9291,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9303,19 +9306,19 @@
         <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -9323,7 +9326,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9346,19 +9349,19 @@
         <v>57</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9395,17 +9398,17 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9414,36 +9417,36 @@
         <v>56</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>45</v>
@@ -9465,19 +9468,19 @@
         <v>57</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9526,7 +9529,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9535,33 +9538,33 @@
         <v>56</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9676,7 +9679,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9793,7 +9796,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9816,19 +9819,19 @@
         <v>57</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9877,7 +9880,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9898,10 +9901,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9912,7 +9915,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9938,22 +9941,22 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q66" t="s" s="2">
         <v>45</v>
@@ -9977,10 +9980,10 @@
         <v>136</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9998,7 +10001,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -10019,10 +10022,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -10033,7 +10036,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10059,14 +10062,14 @@
         <v>120</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -10115,7 +10118,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10136,10 +10139,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -10150,7 +10153,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10176,21 +10179,21 @@
         <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>45</v>
@@ -10232,7 +10235,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10241,7 +10244,7 @@
         <v>56</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>45</v>
@@ -10253,10 +10256,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10267,7 +10270,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10293,16 +10296,16 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -10330,10 +10333,10 @@
         <v>136</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -10351,7 +10354,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10372,10 +10375,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10386,7 +10389,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10412,16 +10415,16 @@
         <v>142</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10449,10 +10452,10 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -10470,7 +10473,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10479,13 +10482,13 @@
         <v>56</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>45</v>
@@ -10494,7 +10497,7 @@
         <v>99</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10505,7 +10508,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10620,7 +10623,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10737,7 +10740,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10760,19 +10763,19 @@
         <v>57</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10821,7 +10824,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10842,10 +10845,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10856,7 +10859,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10971,7 +10974,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11088,7 +11091,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11114,16 +11117,16 @@
         <v>69</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -11172,7 +11175,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -11193,10 +11196,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -11207,7 +11210,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11233,13 +11236,13 @@
         <v>120</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11289,7 +11292,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11310,10 +11313,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11324,7 +11327,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11350,14 +11353,14 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -11406,7 +11409,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11427,10 +11430,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11441,7 +11444,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11467,14 +11470,14 @@
         <v>120</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11523,7 +11526,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11544,10 +11547,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11558,7 +11561,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11581,19 +11584,19 @@
         <v>57</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11642,7 +11645,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11663,10 +11666,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11677,7 +11680,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11703,16 +11706,16 @@
         <v>120</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11761,7 +11764,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11782,10 +11785,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11796,11 +11799,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11822,14 +11825,14 @@
         <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11857,10 +11860,10 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11878,7 +11881,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11896,24 +11899,24 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11939,14 +11942,14 @@
         <v>120</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11995,7 +11998,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -12010,16 +12013,16 @@
         <v>45</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -12030,7 +12033,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12056,13 +12059,13 @@
         <v>142</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12088,13 +12091,13 @@
         <v>45</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -12112,7 +12115,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -12130,24 +12133,24 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12262,7 +12265,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12379,7 +12382,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12402,19 +12405,19 @@
         <v>57</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -12451,7 +12454,7 @@
         <v>45</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AB87" s="2"/>
       <c r="AC87" t="s" s="2">
@@ -12461,7 +12464,7 @@
         <v>129</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12482,10 +12485,10 @@
         <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -12496,10 +12499,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>45</v>
@@ -12521,19 +12524,19 @@
         <v>57</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
@@ -12558,13 +12561,13 @@
         <v>45</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
@@ -12582,7 +12585,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12603,10 +12606,10 @@
         <v>45</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12617,7 +12620,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12732,7 +12735,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12758,10 +12761,10 @@
         <v>102</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12847,10 +12850,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>45</v>
@@ -12872,13 +12875,13 @@
         <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12964,7 +12967,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12990,23 +12993,23 @@
         <v>69</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>45</v>
@@ -13048,7 +13051,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -13069,10 +13072,10 @@
         <v>45</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -13083,7 +13086,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13109,13 +13112,13 @@
         <v>120</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13165,7 +13168,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13186,10 +13189,10 @@
         <v>45</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -13200,7 +13203,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13226,14 +13229,14 @@
         <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>45</v>
@@ -13282,7 +13285,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -13303,10 +13306,10 @@
         <v>45</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -13317,7 +13320,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13343,14 +13346,14 @@
         <v>120</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -13399,7 +13402,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13420,10 +13423,10 @@
         <v>45</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13457,19 +13460,19 @@
         <v>57</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
@@ -13518,7 +13521,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13539,10 +13542,10 @@
         <v>45</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -13553,7 +13556,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13579,16 +13582,16 @@
         <v>120</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>45</v>
@@ -13637,7 +13640,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13658,10 +13661,10 @@
         <v>45</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -13672,7 +13675,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13698,16 +13701,16 @@
         <v>142</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -13732,13 +13735,13 @@
         <v>45</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>45</v>
@@ -13756,7 +13759,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13777,10 +13780,10 @@
         <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -13791,7 +13794,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13906,7 +13909,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14023,7 +14026,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14046,19 +14049,19 @@
         <v>57</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>45</v>
@@ -14095,7 +14098,7 @@
         <v>45</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AB101" s="2"/>
       <c r="AC101" t="s" s="2">
@@ -14105,7 +14108,7 @@
         <v>129</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
@@ -14126,10 +14129,10 @@
         <v>45</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
@@ -14140,10 +14143,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>45</v>
@@ -14165,19 +14168,19 @@
         <v>57</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>45</v>
@@ -14202,13 +14205,13 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
@@ -14226,7 +14229,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14247,10 +14250,10 @@
         <v>45</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -14261,7 +14264,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14376,7 +14379,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14402,10 +14405,10 @@
         <v>102</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14491,10 +14494,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>45</v>
@@ -14516,13 +14519,13 @@
         <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -14608,7 +14611,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14634,23 +14637,23 @@
         <v>69</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>45</v>
@@ -14692,7 +14695,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14713,10 +14716,10 @@
         <v>45</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -14727,7 +14730,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14753,13 +14756,13 @@
         <v>120</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14809,7 +14812,7 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -14830,10 +14833,10 @@
         <v>45</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
@@ -14844,7 +14847,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14870,14 +14873,14 @@
         <v>75</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>45</v>
@@ -14926,7 +14929,7 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -14947,10 +14950,10 @@
         <v>45</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>45</v>
@@ -14961,7 +14964,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14987,14 +14990,14 @@
         <v>120</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
@@ -15043,7 +15046,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -15064,10 +15067,10 @@
         <v>45</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>45</v>
@@ -15078,7 +15081,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15101,19 +15104,19 @@
         <v>57</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -15162,7 +15165,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -15183,10 +15186,10 @@
         <v>45</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
@@ -15197,7 +15200,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15223,16 +15226,16 @@
         <v>120</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
@@ -15281,7 +15284,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -15302,10 +15305,10 @@
         <v>45</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
@@ -15316,7 +15319,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15339,16 +15342,16 @@
         <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15398,7 +15401,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15416,24 +15419,24 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15456,16 +15459,16 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15515,7 +15518,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -15533,24 +15536,24 @@
         <v>45</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15573,19 +15576,19 @@
         <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>45</v>
@@ -15634,7 +15637,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15646,7 +15649,7 @@
         <v>45</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>45</v>
@@ -15655,10 +15658,10 @@
         <v>45</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
@@ -15669,7 +15672,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15784,7 +15787,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15901,11 +15904,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15930,7 +15933,7 @@
         <v>108</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>105</v>
@@ -15983,7 +15986,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -16018,7 +16021,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16041,13 +16044,13 @@
         <v>45</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16098,7 +16101,7 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
@@ -16107,7 +16110,7 @@
         <v>56</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>45</v>
@@ -16119,10 +16122,10 @@
         <v>45</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -16133,7 +16136,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16156,13 +16159,13 @@
         <v>45</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16213,7 +16216,7 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
@@ -16222,7 +16225,7 @@
         <v>56</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>45</v>
@@ -16234,10 +16237,10 @@
         <v>45</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
@@ -16248,7 +16251,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16274,16 +16277,16 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
@@ -16311,10 +16314,10 @@
         <v>79</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>45</v>
@@ -16332,7 +16335,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16350,13 +16353,13 @@
         <v>45</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
@@ -16367,7 +16370,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16393,16 +16396,16 @@
         <v>142</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
@@ -16427,13 +16430,13 @@
         <v>45</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>45</v>
@@ -16451,7 +16454,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16469,13 +16472,13 @@
         <v>45</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
@@ -16486,7 +16489,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16509,17 +16512,17 @@
         <v>45</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
@@ -16568,7 +16571,7 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -16592,7 +16595,7 @@
         <v>45</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
@@ -16603,7 +16606,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16629,10 +16632,10 @@
         <v>120</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16683,7 +16686,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -16704,10 +16707,10 @@
         <v>45</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
@@ -16718,7 +16721,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16741,19 +16744,19 @@
         <v>57</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
@@ -16802,7 +16805,7 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -16814,7 +16817,7 @@
         <v>45</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>45</v>
@@ -16823,10 +16826,10 @@
         <v>45</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
@@ -16837,7 +16840,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16952,7 +16955,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17069,11 +17072,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17098,7 +17101,7 @@
         <v>108</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>105</v>
@@ -17151,7 +17154,7 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -17186,7 +17189,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17212,23 +17215,23 @@
         <v>75</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="R128" t="s" s="2">
         <v>45</v>
@@ -17249,10 +17252,10 @@
         <v>136</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>45</v>
@@ -17270,7 +17273,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -17294,7 +17297,7 @@
         <v>99</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>45</v>
@@ -17305,7 +17308,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17328,13 +17331,13 @@
         <v>45</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -17385,7 +17388,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>56</v>
@@ -17409,7 +17412,7 @@
         <v>45</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
@@ -17420,7 +17423,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17443,19 +17446,19 @@
         <v>57</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>45</v>
@@ -17492,7 +17495,7 @@
         <v>45</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB130" s="2"/>
       <c r="AC130" t="s" s="2">
@@ -17502,7 +17505,7 @@
         <v>129</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
@@ -17514,7 +17517,7 @@
         <v>45</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>45</v>
@@ -17523,10 +17526,10 @@
         <v>45</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>45</v>
@@ -17537,7 +17540,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17652,7 +17655,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17769,11 +17772,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17798,7 +17801,7 @@
         <v>108</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M133" t="s" s="2">
         <v>105</v>
@@ -17851,7 +17854,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -17886,7 +17889,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17912,14 +17915,14 @@
         <v>142</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>45</v>
@@ -17944,13 +17947,13 @@
         <v>45</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>45</v>
@@ -17968,7 +17971,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>56</v>
@@ -17986,16 +17989,16 @@
         <v>45</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>45</v>
@@ -18003,7 +18006,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18026,19 +18029,19 @@
         <v>57</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>45</v>
@@ -18087,7 +18090,7 @@
         <v>45</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>43</v>
@@ -18105,24 +18108,24 @@
         <v>45</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18148,16 +18151,16 @@
         <v>142</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>45</v>
@@ -18185,10 +18188,10 @@
         <v>79</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>45</v>
@@ -18206,7 +18209,7 @@
         <v>45</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>43</v>
@@ -18215,7 +18218,7 @@
         <v>56</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>45</v>
@@ -18230,7 +18233,7 @@
         <v>99</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>45</v>
@@ -18241,11 +18244,11 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18267,16 +18270,16 @@
         <v>142</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>45</v>
@@ -18304,10 +18307,10 @@
         <v>79</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>45</v>
@@ -18325,7 +18328,7 @@
         <v>45</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>43</v>
@@ -18343,24 +18346,24 @@
         <v>45</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18386,16 +18389,16 @@
         <v>45</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>45</v>
@@ -18444,7 +18447,7 @@
         <v>45</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -18465,10 +18468,10 @@
         <v>45</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>45</v>
@@ -18479,10 +18482,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>45</v>
@@ -18504,19 +18507,19 @@
         <v>57</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>45</v>
@@ -18565,7 +18568,7 @@
         <v>45</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>43</v>
@@ -18577,7 +18580,7 @@
         <v>45</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>45</v>
@@ -18586,10 +18589,10 @@
         <v>45</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>45</v>
@@ -18600,7 +18603,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18715,7 +18718,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18832,11 +18835,11 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18861,7 +18864,7 @@
         <v>108</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>105</v>
@@ -18914,7 +18917,7 @@
         <v>45</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>43</v>
@@ -18949,7 +18952,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18975,14 +18978,14 @@
         <v>142</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>45</v>
@@ -19010,10 +19013,10 @@
         <v>79</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>45</v>
@@ -19031,7 +19034,7 @@
         <v>45</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>56</v>
@@ -19049,16 +19052,16 @@
         <v>45</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>45</v>
@@ -19066,7 +19069,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19181,7 +19184,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19298,7 +19301,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19321,19 +19324,19 @@
         <v>57</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>45</v>
@@ -19370,7 +19373,7 @@
         <v>45</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB146" s="2"/>
       <c r="AC146" t="s" s="2">
@@ -19380,7 +19383,7 @@
         <v>129</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>43</v>
@@ -19401,10 +19404,10 @@
         <v>45</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>45</v>
@@ -19415,10 +19418,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>45</v>
@@ -19440,19 +19443,19 @@
         <v>57</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>45</v>
@@ -19480,10 +19483,10 @@
         <v>79</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>45</v>
@@ -19501,7 +19504,7 @@
         <v>45</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>43</v>
@@ -19522,10 +19525,10 @@
         <v>45</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>45</v>
@@ -19536,7 +19539,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19651,7 +19654,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19768,7 +19771,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19794,23 +19797,23 @@
         <v>69</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R150" t="s" s="2">
         <v>45</v>
@@ -19852,7 +19855,7 @@
         <v>45</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>43</v>
@@ -19873,10 +19876,10 @@
         <v>45</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>45</v>
@@ -19887,7 +19890,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19913,13 +19916,13 @@
         <v>120</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -19969,7 +19972,7 @@
         <v>45</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>43</v>
@@ -19990,10 +19993,10 @@
         <v>45</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>45</v>
@@ -20004,7 +20007,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20030,21 +20033,21 @@
         <v>75</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="R152" t="s" s="2">
         <v>45</v>
@@ -20086,7 +20089,7 @@
         <v>45</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>43</v>
@@ -20107,10 +20110,10 @@
         <v>45</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>45</v>
@@ -20121,7 +20124,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20147,14 +20150,14 @@
         <v>120</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>45</v>
@@ -20203,7 +20206,7 @@
         <v>45</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>43</v>
@@ -20224,10 +20227,10 @@
         <v>45</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>45</v>
@@ -20238,7 +20241,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20261,19 +20264,19 @@
         <v>57</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>45</v>
@@ -20322,7 +20325,7 @@
         <v>45</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>43</v>
@@ -20343,10 +20346,10 @@
         <v>45</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>45</v>
@@ -20357,10 +20360,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>45</v>
@@ -20382,19 +20385,19 @@
         <v>57</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>45</v>
@@ -20443,7 +20446,7 @@
         <v>45</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>43</v>
@@ -20464,10 +20467,10 @@
         <v>45</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>45</v>
@@ -20478,7 +20481,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20593,7 +20596,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20619,10 +20622,10 @@
         <v>102</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20708,10 +20711,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>45</v>
@@ -20733,13 +20736,13 @@
         <v>45</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -20825,7 +20828,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20851,23 +20854,23 @@
         <v>69</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R159" t="s" s="2">
         <v>45</v>
@@ -20909,7 +20912,7 @@
         <v>45</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>43</v>
@@ -20930,10 +20933,10 @@
         <v>45</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>45</v>
@@ -20944,7 +20947,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20970,13 +20973,13 @@
         <v>120</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -21026,7 +21029,7 @@
         <v>45</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>43</v>
@@ -21047,10 +21050,10 @@
         <v>45</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>45</v>
@@ -21061,7 +21064,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21087,21 +21090,21 @@
         <v>75</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="R161" t="s" s="2">
         <v>45</v>
@@ -21143,7 +21146,7 @@
         <v>45</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>43</v>
@@ -21164,10 +21167,10 @@
         <v>45</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>45</v>
@@ -21178,7 +21181,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21204,21 +21207,21 @@
         <v>120</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>45</v>
@@ -21260,7 +21263,7 @@
         <v>45</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>43</v>
@@ -21281,10 +21284,10 @@
         <v>45</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>45</v>
@@ -21295,7 +21298,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21318,19 +21321,19 @@
         <v>57</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>45</v>
@@ -21379,7 +21382,7 @@
         <v>45</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>43</v>
@@ -21400,10 +21403,10 @@
         <v>45</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>45</v>
@@ -21414,7 +21417,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21440,16 +21443,16 @@
         <v>120</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>45</v>
@@ -21498,7 +21501,7 @@
         <v>45</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>43</v>
@@ -21519,10 +21522,10 @@
         <v>45</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>45</v>
@@ -21533,10 +21536,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>45</v>
@@ -21558,19 +21561,19 @@
         <v>57</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>45</v>
@@ -21598,10 +21601,10 @@
         <v>136</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>45</v>
@@ -21619,7 +21622,7 @@
         <v>45</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>43</v>
@@ -21637,24 +21640,24 @@
         <v>45</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21769,7 +21772,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21886,7 +21889,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21909,19 +21912,19 @@
         <v>57</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>45</v>
@@ -21970,7 +21973,7 @@
         <v>45</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>43</v>
@@ -21991,10 +21994,10 @@
         <v>45</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>45</v>
@@ -22005,7 +22008,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22031,22 +22034,22 @@
         <v>75</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P169" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q169" t="s" s="2">
         <v>45</v>
@@ -22070,10 +22073,10 @@
         <v>136</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>45</v>
@@ -22091,7 +22094,7 @@
         <v>45</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>43</v>
@@ -22112,10 +22115,10 @@
         <v>45</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>45</v>
@@ -22126,7 +22129,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22152,14 +22155,14 @@
         <v>120</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>45</v>
@@ -22208,7 +22211,7 @@
         <v>45</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>43</v>
@@ -22229,10 +22232,10 @@
         <v>45</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>45</v>
@@ -22243,7 +22246,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22269,21 +22272,21 @@
         <v>69</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R171" t="s" s="2">
         <v>45</v>
@@ -22325,7 +22328,7 @@
         <v>45</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>43</v>
@@ -22334,7 +22337,7 @@
         <v>56</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>45</v>
@@ -22346,10 +22349,10 @@
         <v>45</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>45</v>
@@ -22360,7 +22363,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22386,23 +22389,23 @@
         <v>75</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="R172" t="s" s="2">
         <v>45</v>
@@ -22444,7 +22447,7 @@
         <v>45</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>43</v>
@@ -22465,10 +22468,10 @@
         <v>45</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>45</v>
@@ -22479,7 +22482,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22505,16 +22508,16 @@
         <v>142</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>45</v>
@@ -22542,10 +22545,10 @@
         <v>79</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>45</v>
@@ -22563,7 +22566,7 @@
         <v>45</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>43</v>
@@ -22572,7 +22575,7 @@
         <v>56</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AI173" t="s" s="2">
         <v>45</v>
@@ -22587,7 +22590,7 @@
         <v>99</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>45</v>
@@ -22598,11 +22601,11 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22624,16 +22627,16 @@
         <v>142</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>45</v>
@@ -22661,10 +22664,10 @@
         <v>79</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>45</v>
@@ -22682,7 +22685,7 @@
         <v>45</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>43</v>
@@ -22700,24 +22703,24 @@
         <v>45</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22743,16 +22746,16 @@
         <v>45</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>45</v>
@@ -22801,7 +22804,7 @@
         <v>45</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>43</v>
@@ -22822,10 +22825,10 @@
         <v>45</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>45</v>
@@ -22836,10 +22839,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>45</v>
@@ -22861,19 +22864,19 @@
         <v>57</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>45</v>
@@ -22922,7 +22925,7 @@
         <v>45</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>43</v>
@@ -22934,7 +22937,7 @@
         <v>45</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>45</v>
@@ -22943,10 +22946,10 @@
         <v>45</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>45</v>
@@ -22957,7 +22960,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23072,7 +23075,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23189,11 +23192,11 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23218,7 +23221,7 @@
         <v>108</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M179" t="s" s="2">
         <v>105</v>
@@ -23271,7 +23274,7 @@
         <v>45</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>43</v>
@@ -23306,7 +23309,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23332,14 +23335,14 @@
         <v>142</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>45</v>
@@ -23367,10 +23370,10 @@
         <v>79</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z180" t="s" s="2">
         <v>45</v>
@@ -23388,7 +23391,7 @@
         <v>45</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>56</v>
@@ -23406,16 +23409,16 @@
         <v>45</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>45</v>
@@ -23423,7 +23426,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23538,7 +23541,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23655,7 +23658,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23678,19 +23681,19 @@
         <v>57</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>45</v>
@@ -23727,7 +23730,7 @@
         <v>45</v>
       </c>
       <c r="AA183" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB183" s="2"/>
       <c r="AC183" t="s" s="2">
@@ -23737,7 +23740,7 @@
         <v>129</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>43</v>
@@ -23758,10 +23761,10 @@
         <v>45</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>45</v>
@@ -23772,10 +23775,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C184" t="s" s="2">
         <v>45</v>
@@ -23797,19 +23800,19 @@
         <v>57</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>45</v>
@@ -23837,10 +23840,10 @@
         <v>79</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>45</v>
@@ -23858,7 +23861,7 @@
         <v>45</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>43</v>
@@ -23879,10 +23882,10 @@
         <v>45</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>45</v>
@@ -23893,7 +23896,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24008,7 +24011,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24125,7 +24128,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24151,23 +24154,23 @@
         <v>69</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R187" t="s" s="2">
         <v>45</v>
@@ -24209,7 +24212,7 @@
         <v>45</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>43</v>
@@ -24230,10 +24233,10 @@
         <v>45</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>45</v>
@@ -24244,7 +24247,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24270,13 +24273,13 @@
         <v>120</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
@@ -24326,7 +24329,7 @@
         <v>45</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>43</v>
@@ -24347,10 +24350,10 @@
         <v>45</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>45</v>
@@ -24361,7 +24364,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24387,21 +24390,21 @@
         <v>75</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="R189" t="s" s="2">
         <v>45</v>
@@ -24443,7 +24446,7 @@
         <v>45</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>43</v>
@@ -24464,10 +24467,10 @@
         <v>45</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>45</v>
@@ -24478,7 +24481,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24504,14 +24507,14 @@
         <v>120</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>45</v>
@@ -24560,7 +24563,7 @@
         <v>45</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>43</v>
@@ -24581,10 +24584,10 @@
         <v>45</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>45</v>
@@ -24595,7 +24598,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24618,19 +24621,19 @@
         <v>57</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>45</v>
@@ -24679,7 +24682,7 @@
         <v>45</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>43</v>
@@ -24700,10 +24703,10 @@
         <v>45</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>45</v>
@@ -24714,10 +24717,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C192" t="s" s="2">
         <v>45</v>
@@ -24739,19 +24742,19 @@
         <v>57</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>45</v>
@@ -24800,7 +24803,7 @@
         <v>45</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>43</v>
@@ -24821,10 +24824,10 @@
         <v>45</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>45</v>
@@ -24835,7 +24838,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24950,7 +24953,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24976,10 +24979,10 @@
         <v>102</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -25065,10 +25068,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C195" t="s" s="2">
         <v>45</v>
@@ -25090,13 +25093,13 @@
         <v>45</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -25182,7 +25185,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25208,23 +25211,23 @@
         <v>69</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R196" t="s" s="2">
         <v>45</v>
@@ -25266,7 +25269,7 @@
         <v>45</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>43</v>
@@ -25287,10 +25290,10 @@
         <v>45</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>45</v>
@@ -25301,7 +25304,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25327,13 +25330,13 @@
         <v>120</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
@@ -25383,7 +25386,7 @@
         <v>45</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>43</v>
@@ -25404,10 +25407,10 @@
         <v>45</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>45</v>
@@ -25418,7 +25421,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25444,21 +25447,21 @@
         <v>75</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="R198" t="s" s="2">
         <v>45</v>
@@ -25500,7 +25503,7 @@
         <v>45</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>43</v>
@@ -25521,10 +25524,10 @@
         <v>45</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>45</v>
@@ -25535,7 +25538,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25561,21 +25564,21 @@
         <v>120</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="R199" t="s" s="2">
         <v>45</v>
@@ -25617,7 +25620,7 @@
         <v>45</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>43</v>
@@ -25638,10 +25641,10 @@
         <v>45</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>45</v>
@@ -25652,7 +25655,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25675,19 +25678,19 @@
         <v>57</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>45</v>
@@ -25736,7 +25739,7 @@
         <v>45</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>43</v>
@@ -25757,10 +25760,10 @@
         <v>45</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>45</v>
@@ -25771,7 +25774,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25797,16 +25800,16 @@
         <v>120</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>45</v>
@@ -25855,7 +25858,7 @@
         <v>45</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>43</v>
@@ -25876,10 +25879,10 @@
         <v>45</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>45</v>
@@ -25890,10 +25893,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C202" t="s" s="2">
         <v>45</v>
@@ -25915,19 +25918,19 @@
         <v>57</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>45</v>
@@ -25955,10 +25958,10 @@
         <v>136</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>45</v>
@@ -25976,7 +25979,7 @@
         <v>45</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>43</v>
@@ -25994,24 +25997,24 @@
         <v>45</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO202" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26126,7 +26129,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26243,7 +26246,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26266,19 +26269,19 @@
         <v>57</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>45</v>
@@ -26327,7 +26330,7 @@
         <v>45</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>43</v>
@@ -26348,10 +26351,10 @@
         <v>45</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>45</v>
@@ -26362,7 +26365,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26388,22 +26391,22 @@
         <v>75</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P206" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q206" t="s" s="2">
         <v>45</v>
@@ -26427,10 +26430,10 @@
         <v>136</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>45</v>
@@ -26448,7 +26451,7 @@
         <v>45</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>43</v>
@@ -26469,10 +26472,10 @@
         <v>45</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>45</v>
@@ -26483,7 +26486,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26509,14 +26512,14 @@
         <v>120</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>45</v>
@@ -26565,7 +26568,7 @@
         <v>45</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>43</v>
@@ -26586,10 +26589,10 @@
         <v>45</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>45</v>
@@ -26600,7 +26603,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26626,21 +26629,21 @@
         <v>69</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R208" t="s" s="2">
         <v>45</v>
@@ -26682,7 +26685,7 @@
         <v>45</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>43</v>
@@ -26691,7 +26694,7 @@
         <v>56</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI208" t="s" s="2">
         <v>45</v>
@@ -26703,10 +26706,10 @@
         <v>45</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>45</v>
@@ -26717,7 +26720,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26743,23 +26746,23 @@
         <v>75</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="R209" t="s" s="2">
         <v>45</v>
@@ -26801,7 +26804,7 @@
         <v>45</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>43</v>
@@ -26822,10 +26825,10 @@
         <v>45</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>45</v>
@@ -26836,7 +26839,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26862,16 +26865,16 @@
         <v>142</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>45</v>
@@ -26899,10 +26902,10 @@
         <v>79</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z210" t="s" s="2">
         <v>45</v>
@@ -26920,7 +26923,7 @@
         <v>45</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>43</v>
@@ -26929,7 +26932,7 @@
         <v>56</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>45</v>
@@ -26944,7 +26947,7 @@
         <v>99</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>45</v>
@@ -26955,11 +26958,11 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -26981,16 +26984,16 @@
         <v>142</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>45</v>
@@ -27018,10 +27021,10 @@
         <v>79</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>45</v>
@@ -27039,7 +27042,7 @@
         <v>45</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>43</v>
@@ -27057,24 +27060,24 @@
         <v>45</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO211" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27100,16 +27103,16 @@
         <v>45</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>45</v>
@@ -27158,7 +27161,7 @@
         <v>45</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>43</v>
@@ -27179,10 +27182,10 @@
         <v>45</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN212" t="s" s="2">
         <v>45</v>
